--- a/Intro materials and keys/Lab Schedule 2024.xlsx
+++ b/Intro materials and keys/Lab Schedule 2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/Econometrics-Slides/Introduction Materials/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamsoliman/Documents/GitHub/IntroEconometrics/Intro materials and keys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D13722-AE07-634E-BC0D-FA21992898A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C38686-3403-4548-9E32-4FDFF64AE68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="15180" xr2:uid="{1103A02E-6F1A-EC41-B75E-F74E9889530B}"/>
   </bookViews>
@@ -79,7 +79,7 @@
     <t>Difference-in-Differences</t>
   </si>
   <si>
-    <t>No Lab (Most Likely)</t>
+    <t>No Lab (Thanksgiving)</t>
   </si>
 </sst>
 </file>
@@ -154,9 +154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -194,7 +194,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -300,7 +300,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -442,7 +442,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,7 +453,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -630,11 +630,8 @@
         <f t="shared" si="0"/>
         <v>45622</v>
       </c>
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -642,8 +639,11 @@
         <f>A15+7</f>
         <v>45629</v>
       </c>
+      <c r="B16" s="1">
+        <v>12</v>
+      </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
